--- a/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>47710</v>
+        <v>47712</v>
       </c>
       <c r="D61" t="n">
         <v>8058</v>
       </c>
       <c r="E61" t="n">
-        <v>305736686</v>
+        <v>305766805</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6520,13 +6520,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D120" t="n">
         <v>50</v>
       </c>
       <c r="E120" t="n">
-        <v>17480759</v>
+        <v>17611036</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>14632</v>
+        <v>14633</v>
       </c>
       <c r="D121" t="n">
         <v>2285</v>
       </c>
       <c r="E121" t="n">
-        <v>166992531</v>
+        <v>167108722</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71256</v>
+        <v>71261</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110281502</v>
+        <v>110287231</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18840</v>
+        <v>18845</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75078847</v>
+        <v>75099352</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>16911</v>
+        <v>16917</v>
       </c>
       <c r="D401" t="n">
         <v>2945</v>
       </c>
       <c r="E401" t="n">
-        <v>50425027</v>
+        <v>50434566</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -21106,13 +21106,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>6284</v>
+        <v>6285</v>
       </c>
       <c r="D406" t="n">
         <v>911</v>
       </c>
       <c r="E406" t="n">
-        <v>19289207</v>
+        <v>19290013</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -21208,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9328</v>
+        <v>9333</v>
       </c>
       <c r="D408" t="n">
         <v>1304</v>
       </c>
       <c r="E408" t="n">
-        <v>23689436</v>
+        <v>23704653</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -22075,13 +22075,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>70534</v>
+        <v>70535</v>
       </c>
       <c r="D425" t="n">
         <v>13142</v>
       </c>
       <c r="E425" t="n">
-        <v>343483488</v>
+        <v>343510010</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -22330,13 +22330,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="D430" t="n">
         <v>698</v>
       </c>
       <c r="E430" t="n">
-        <v>21810497</v>
+        <v>21811728</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73743</v>
+        <v>73745</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>386286610</v>
+        <v>386330290</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74978</v>
+        <v>74979</v>
       </c>
       <c r="D474" t="n">
         <v>11549</v>
       </c>
       <c r="E474" t="n">
-        <v>434640907</v>
+        <v>434681221</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416603</v>
+        <v>416617</v>
       </c>
       <c r="D477" t="n">
         <v>70497</v>
       </c>
       <c r="E477" t="n">
-        <v>724677058</v>
+        <v>724724257</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291829</v>
+        <v>291839</v>
       </c>
       <c r="D484" t="n">
         <v>42562</v>
       </c>
       <c r="E484" t="n">
-        <v>1767125717</v>
+        <v>1767314795</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D485" t="n">
         <v>420</v>
       </c>
       <c r="E485" t="n">
-        <v>99339705</v>
+        <v>99419703</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230438</v>
+        <v>230458</v>
       </c>
       <c r="D487" t="n">
-        <v>33844</v>
+        <v>33845</v>
       </c>
       <c r="E487" t="n">
-        <v>1812326466</v>
+        <v>1813660978</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184237</v>
+        <v>184238</v>
       </c>
       <c r="D505" t="n">
         <v>27736</v>
       </c>
       <c r="E505" t="n">
-        <v>332677072</v>
+        <v>332679772</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56087</v>
+        <v>56089</v>
       </c>
       <c r="D520" t="n">
         <v>8769</v>
       </c>
       <c r="E520" t="n">
-        <v>253261587</v>
+        <v>253510639</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27736,13 +27736,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>37774</v>
+        <v>37777</v>
       </c>
       <c r="D536" t="n">
         <v>6687</v>
       </c>
       <c r="E536" t="n">
-        <v>173177992</v>
+        <v>173248686</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -27940,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>76633</v>
+        <v>76637</v>
       </c>
       <c r="D540" t="n">
         <v>17494</v>
       </c>
       <c r="E540" t="n">
-        <v>114126711</v>
+        <v>114129393</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25055</v>
+        <v>25065</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92126085</v>
+        <v>92331999</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28246,13 +28246,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D546" t="n">
         <v>14</v>
       </c>
       <c r="E546" t="n">
-        <v>6360066</v>
+        <v>6534296</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -28297,13 +28297,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>7437</v>
+        <v>7438</v>
       </c>
       <c r="D547" t="n">
         <v>1667</v>
       </c>
       <c r="E547" t="n">
-        <v>37677476</v>
+        <v>37681278</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -28501,13 +28501,13 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D551" t="n">
         <v>175</v>
       </c>
       <c r="E551" t="n">
-        <v>2011806</v>
+        <v>2015502</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39917</v>
+        <v>39920</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60356678</v>
+        <v>60358891</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18429</v>
+        <v>18430</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>72553333</v>
+        <v>72554723</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12390</v>
+        <v>12394</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>39995711</v>
+        <v>40027556</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -31612,13 +31612,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>9700</v>
+        <v>9701</v>
       </c>
       <c r="D612" t="n">
         <v>1964</v>
       </c>
       <c r="E612" t="n">
-        <v>48001469</v>
+        <v>48023701</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -31816,13 +31816,13 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D616" t="n">
         <v>142</v>
       </c>
       <c r="E616" t="n">
-        <v>3300738</v>
+        <v>3305706</v>
       </c>
       <c r="F616" t="inlineStr">
         <is>
@@ -34978,13 +34978,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>11103</v>
+        <v>11107</v>
       </c>
       <c r="D678" t="n">
         <v>2218</v>
       </c>
       <c r="E678" t="n">
-        <v>55909400</v>
+        <v>55930968</v>
       </c>
       <c r="F678" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>58391</v>
+        <v>58393</v>
       </c>
       <c r="D844" t="n">
         <v>11374</v>
       </c>
       <c r="E844" t="n">
-        <v>290395101</v>
+        <v>290406601</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -44515,13 +44515,13 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>28824</v>
+        <v>28825</v>
       </c>
       <c r="D865" t="n">
         <v>6343</v>
       </c>
       <c r="E865" t="n">
-        <v>53403627</v>
+        <v>53407166</v>
       </c>
       <c r="F865" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79078</v>
+        <v>79080</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>391231708</v>
+        <v>391401403</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -48238,13 +48238,13 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>38551</v>
+        <v>38552</v>
       </c>
       <c r="D938" t="n">
         <v>6910</v>
       </c>
       <c r="E938" t="n">
-        <v>195227309</v>
+        <v>195262936</v>
       </c>
       <c r="F938" t="inlineStr">
         <is>
